--- a/Adjusted Individual GLSA, NECI, NEFU captured in 2011-16.xlsx
+++ b/Adjusted Individual GLSA, NECI, NEFU captured in 2011-16.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\osu research\Lidar Squirrel Grids\squirel data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\R-code-for-multivariate-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E91C4022-983D-4994-B87D-B70CA0898440}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="120" windowWidth="18300" windowHeight="11565"/>
+    <workbookView xWindow="540" yWindow="120" windowWidth="18300" windowHeight="11568" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -271,6 +280,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -306,6 +332,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -481,24 +524,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G38" sqref="G38"/>
+      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="5" max="14" width="9.140625" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="16" max="18" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.41796875" customWidth="1"/>
+    <col min="3" max="3" width="9.15625" customWidth="1"/>
+    <col min="5" max="14" width="9.15625" customWidth="1"/>
+    <col min="15" max="15" width="10.26171875" customWidth="1"/>
+    <col min="16" max="18" width="9.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -554,7 +597,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>430</v>
       </c>
@@ -586,14 +629,14 @@
         <v>8</v>
       </c>
       <c r="R2">
-        <f>(K3+M3+O3)/3</f>
-        <v>3.6666666666666665</v>
+        <f>(K2+M2+O2)/3</f>
+        <v>16</v>
       </c>
       <c r="S2">
-        <v>3.6666666666666665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>430</v>
       </c>
@@ -632,7 +675,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>430</v>
       </c>
@@ -664,14 +707,14 @@
         <v>8</v>
       </c>
       <c r="R4">
-        <f t="shared" ref="R3:S55" si="0">(K4+M4+O4)/3</f>
+        <f t="shared" ref="R4:R52" si="0">(K4+M4+O4)/3</f>
         <v>2.6666666666666665</v>
       </c>
       <c r="S4">
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>431</v>
       </c>
@@ -710,7 +753,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>431</v>
       </c>
@@ -749,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>431</v>
       </c>
@@ -788,7 +831,7 @@
         <v>6.666666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>432</v>
       </c>
@@ -827,7 +870,7 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>432</v>
       </c>
@@ -866,7 +909,7 @@
         <v>2.6666666666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>432</v>
       </c>
@@ -905,7 +948,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>433</v>
       </c>
@@ -944,7 +987,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>433</v>
       </c>
@@ -983,7 +1026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>433</v>
       </c>
@@ -1022,7 +1065,7 @@
         <v>20.333333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>444</v>
       </c>
@@ -1049,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>444</v>
       </c>
@@ -1069,14 +1112,14 @@
         <v>12</v>
       </c>
       <c r="R15">
-        <f t="shared" ref="R15:S19" si="1">(K15+M15+O15)/1</f>
+        <f t="shared" ref="R15:R19" si="1">(K15+M15+O15)/1</f>
         <v>5</v>
       </c>
       <c r="S15">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>444</v>
       </c>
@@ -1103,7 +1146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>610</v>
       </c>
@@ -1130,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>610</v>
       </c>
@@ -1157,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>610</v>
       </c>
@@ -1184,7 +1227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>628</v>
       </c>
@@ -1229,7 +1272,7 @@
         <v>11.333333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>628</v>
       </c>
@@ -1274,7 +1317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>628</v>
       </c>
@@ -1319,7 +1362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>631</v>
       </c>
@@ -1364,7 +1407,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>631</v>
       </c>
@@ -1409,7 +1452,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>631</v>
       </c>
@@ -1454,7 +1497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>650</v>
       </c>
@@ -1493,7 +1536,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>650</v>
       </c>
@@ -1525,14 +1568,14 @@
         <v>12</v>
       </c>
       <c r="R27">
-        <f t="shared" ref="R27:S31" si="2">(K27+M27+O27)/1</f>
+        <f t="shared" ref="R27:R31" si="2">(K27+M27+O27)/1</f>
         <v>6</v>
       </c>
       <c r="S27">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>650</v>
       </c>
@@ -1571,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>651</v>
       </c>
@@ -1610,7 +1653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>651</v>
       </c>
@@ -1649,7 +1692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>651</v>
       </c>
@@ -1688,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>680</v>
       </c>
@@ -1727,7 +1770,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>680</v>
       </c>
@@ -1766,7 +1809,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>680</v>
       </c>
@@ -1805,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>681</v>
       </c>
@@ -1844,7 +1887,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>681</v>
       </c>
@@ -1883,7 +1926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>681</v>
       </c>
@@ -1922,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>840</v>
       </c>
@@ -1961,7 +2004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>840</v>
       </c>
@@ -2000,7 +2043,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>840</v>
       </c>
@@ -2039,7 +2082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>841</v>
       </c>
@@ -2078,7 +2121,7 @@
         <v>3.3333333333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>841</v>
       </c>
@@ -2117,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>841</v>
       </c>
@@ -2156,7 +2199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>842</v>
       </c>
@@ -2195,7 +2238,7 @@
         <v>7.666666666666667</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>842</v>
       </c>
@@ -2234,7 +2277,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>842</v>
       </c>
@@ -2273,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>843</v>
       </c>
@@ -2312,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>843</v>
       </c>
@@ -2351,7 +2394,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>843</v>
       </c>
@@ -2390,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>850</v>
       </c>
@@ -2429,7 +2472,7 @@
         <v>18.333333333333332</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>850</v>
       </c>
@@ -2468,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>850</v>
       </c>
@@ -2507,7 +2550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>851</v>
       </c>
@@ -2540,7 +2583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>851</v>
       </c>
@@ -2566,14 +2609,14 @@
         <v>8</v>
       </c>
       <c r="R54">
-        <f t="shared" ref="R54:S55" si="3">(K54+M54+O54)/2</f>
+        <f t="shared" ref="R54:R55" si="3">(K54+M54+O54)/2</f>
         <v>0.5</v>
       </c>
       <c r="S54">
         <v>0.5</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>851</v>
       </c>
@@ -2607,7 +2650,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:P45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P45">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2615,24 +2658,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
